--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_3_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_3_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.58000000000009</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.819167204710538e-14</v>
+        <v>1.709743457922741e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>3.819167204710538e-14</v>
+        <v>1.709743457922741e-13</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.71755216351551</v>
+        <v>44.67160608855833</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[35.86606552768397, 53.56903879934704]</t>
+          <t>[35.39195167819982, 53.95126049891684]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.008704396734174e-13</v>
+        <v>1.356470491487016e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>3.008704396734174e-13</v>
+        <v>1.356470491487016e-12</v>
       </c>
       <c r="P2" t="n">
-        <v>1.717026615475502</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.503184472888809, 1.9308687580621955]</t>
+          <t>[1.478026573760964, 1.9057108589343486]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.32888853310422</v>
+        <v>52.22448494165594</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.92667465898666, 58.731102407221776]</t>
+          <t>[46.581885202890795, 57.867084680421094]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.40948948948956</v>
+        <v>16.45605605605612</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.64100100100106</v>
+        <v>15.68960960960967</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.17797797797805</v>
+        <v>17.22250250250256</v>
       </c>
     </row>
     <row r="3">
@@ -667,39 +667,39 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.58000000000009</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="I3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>42.09182772628834</v>
+        <v>49.76888184634021</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[33.143407480816016, 51.04024797176067]</t>
+          <t>[39.9677705291899, 59.569993163490516]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.748246075157113e-12</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>2.748246075157113e-12</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.119553001521041</v>
+        <v>2.056658253701427</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.9182898084982707, 2.320816194543811]</t>
+          <t>[1.8428161111147352, 2.270500396288118]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>48.23578149332736</v>
+        <v>53.80613264221489</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.6246600222792, 52.846902964375516]</t>
+          <t>[48.510999371608165, 59.10126591282162]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>14.96292292292298</v>
+        <v>15.14858858858864</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.2396396396397</v>
+        <v>14.3821421421422</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.68620620620627</v>
+        <v>15.91503503503509</v>
       </c>
     </row>
     <row r="4">
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.58000000000009</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -767,25 +767,25 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>48.09374352526902</v>
+        <v>48.06853571997853</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[38.20755183107437, 57.97993521946367]</t>
+          <t>[38.28415282017755, 57.852918619779516]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>9.814371537686384e-13</v>
+        <v>7.23421322845752e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>9.814371537686384e-13</v>
+        <v>7.23421322845752e-13</v>
       </c>
       <c r="P4" t="n">
-        <v>2.534658337130504</v>
+        <v>2.39628989192735</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.333395144107734, 2.7359215301532736]</t>
+          <t>[2.19502669890458, 2.5975530849501203]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>51.93022731155318</v>
+        <v>46.49974887150642</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.78780655880753, 57.07264806429883]</t>
+          <t>[41.54691336834092, 51.45258437467192]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.4711511511512</v>
+        <v>13.93129129129134</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.74786786786792</v>
+        <v>13.20992992992998</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.19443443443449</v>
+        <v>14.65265265265271</v>
       </c>
     </row>
     <row r="5">
@@ -839,39 +839,39 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.3000000000002</v>
+        <v>23.11000000000017</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>41.19923311843164</v>
+        <v>53.37011042452857</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[33.553828562560724, 48.84463767430256]</t>
+          <t>[43.20379181881499, 63.53642903024215]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.752553823233029e-14</v>
+        <v>8.815170815523743e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>3.752553823233029e-14</v>
+        <v>8.815170815523743e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.798816277972889</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.584974135386196, 3.0126584205595814]</t>
+          <t>[2.4717635893108882, 2.8491320762285817]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>45.76555324783366</v>
+        <v>56.54883145810828</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[41.354773871789256, 50.17633262387806]</t>
+          <t>[51.05396325810985, 62.04369965810671]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>12.92112112112124</v>
+        <v>13.32468468468478</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.12812812812824</v>
+        <v>12.63069069069078</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.71411411411423</v>
+        <v>14.01867867867878</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.3000000000002</v>
+        <v>23.11000000000017</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.653122083666858e-13</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>1.653122083666858e-13</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>41.72930506408036</v>
+        <v>42.10924878139178</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[32.9856489750528, 50.47296115310792]</t>
+          <t>[34.58771091219568, 49.630786650587886]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.767919144413099e-12</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>1.767919144413099e-12</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>3.050395269251351</v>
+        <v>2.949763672739966</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.811395227536812, 3.2893953109658898]</t>
+          <t>[2.76107942928112, 3.1384479161988126]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>52.69250879620076</v>
+        <v>52.12845455118777</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.22645330536232, 58.15856428703919]</t>
+          <t>[47.53621464252442, 56.720694459851124]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>11.98818818818829</v>
+        <v>12.26056056056065</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.101901901902</v>
+        <v>11.56656656656665</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.87447447447459</v>
+        <v>12.95455455455465</v>
       </c>
     </row>
     <row r="7">
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.3000000000002</v>
+        <v>23.11000000000017</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1025,11 +1025,11 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>43.15012430128709</v>
+        <v>51.08717450732755</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[36.35409455398307, 49.946154048591104]</t>
+          <t>[43.89608973923394, 58.27825927542115]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1039,11 +1039,11 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.081842643161159</v>
+        <v>3.138447916198813</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.2579479370560818, -2.9057373492662353]</t>
+          <t>[2.974921571867812, 3.3019742605298132]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>49.00340869713614</v>
+        <v>57.34746283348922</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.45256200931493, 53.55425538495736]</t>
+          <t>[52.3665685633469, 62.32835710363155]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>11.42842842842853</v>
+        <v>11.56656656656665</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.77537537537547</v>
+        <v>10.96510510510519</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.08148148148159</v>
+        <v>12.16802802802812</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_3_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_3_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.52000000000008</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.709743457922741e-13</v>
+        <v>7.771561172376096e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>1.709743457922741e-13</v>
+        <v>7.771561172376096e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.67160608855833</v>
+        <v>44.29365245429293</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[35.39195167819982, 53.95126049891684]</t>
+          <t>[36.34952801441154, 52.237776894174324]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.356470491487016e-12</v>
+        <v>1.221245327087672e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.356470491487016e-12</v>
+        <v>1.221245327087672e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.691868716347656</v>
+        <v>1.704447665911579</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.478026573760964, 1.9057108589343486]</t>
+          <t>[1.515763422452733, 1.8931319093704255]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>52.22448494165594</v>
+        <v>48.79353943877032</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.581885202890795, 57.867084680421094]</t>
+          <t>[44.00655667344084, 53.58052220409981]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.45605605605612</v>
+        <v>16.56400400400409</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.68960960960967</v>
+        <v>15.88142142142151</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.22250250250256</v>
+        <v>17.24658658658668</v>
       </c>
     </row>
     <row r="3">
@@ -667,39 +667,39 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.52000000000008</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.661338147750939e-15</v>
       </c>
       <c r="I3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.661338147750939e-15</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>49.76888184634021</v>
+        <v>41.00301896469953</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[39.9677705291899, 59.569993163490516]</t>
+          <t>[31.979773904156147, 50.02626402524291]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>7.730038831255115e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>7.730038831255115e-12</v>
       </c>
       <c r="P3" t="n">
-        <v>2.056658253701427</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.8428161111147352, 2.270500396288118]</t>
+          <t>[1.8805529598065034, 2.333395144107734]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.80613264221489</v>
+        <v>57.09042646246819</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.510999371608165, 59.10126591282162]</t>
+          <t>[52.30454665895614, 61.87630626598023]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.14858858858864</v>
+        <v>15.1078278278279</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.3821421421422</v>
+        <v>14.2887287287288</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.91503503503509</v>
+        <v>15.92692692692701</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.52000000000008</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="I4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>48.06853571997853</v>
+        <v>45.19833866463492</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[38.28415282017755, 57.852918619779516]</t>
+          <t>[35.55281947013443, 54.84385785913542]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7.23421322845752e-13</v>
+        <v>3.083755473198835e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>7.23421322845752e-13</v>
+        <v>3.083755473198835e-12</v>
       </c>
       <c r="P4" t="n">
-        <v>2.39628989192735</v>
+        <v>2.383710942363427</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.19502669890458, 2.5975530849501203]</t>
+          <t>[2.169868799776734, 2.5975530849501194]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>46.49974887150642</v>
+        <v>50.19129132493271</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.54691336834092, 51.45258437467192]</t>
+          <t>[45.246877985949084, 55.13570466391633]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.93129129129134</v>
+        <v>14.10670670670678</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.20992992992998</v>
+        <v>13.33311311311318</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.65265265265271</v>
+        <v>14.88030030030037</v>
       </c>
     </row>
     <row r="5">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.11000000000017</v>
+        <v>23.56000000000024</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -853,25 +853,25 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>53.37011042452857</v>
+        <v>46.92128841572751</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[43.20379181881499, 63.53642903024215]</t>
+          <t>[39.23598315411686, 54.60659367733816]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>8.815170815523743e-14</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="O5" t="n">
-        <v>8.815170815523743e-14</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.660447832769735</v>
+        <v>2.924605773612119</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.4717635893108882, 2.8491320762285817]</t>
+          <t>[2.7485004797171957, 3.100711067507043]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>56.54883145810828</v>
+        <v>53.36009681936502</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[51.05396325810985, 62.04369965810671]</t>
+          <t>[48.81006238059331, 57.91013125813673]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>13.32468468468478</v>
+        <v>12.59363363363376</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.63069069069078</v>
+        <v>11.93329329329342</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.01867867867878</v>
+        <v>13.25397397397411</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.11000000000017</v>
+        <v>23.56000000000024</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>42.10924878139178</v>
+        <v>50.1142625634597</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[34.58771091219568, 49.630786650587886]</t>
+          <t>[42.15498992568777, 58.073535201231635]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.06581410364015e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06581410364015e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.949763672739966</v>
+        <v>2.88686892492035</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.76107942928112, 3.1384479161988126]</t>
+          <t>[2.72334258058935, 3.0503952692513505]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>52.12845455118777</v>
+        <v>52.70086255959307</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.53621464252442, 56.720694459851124]</t>
+          <t>[48.06861376452156, 57.33311135466458]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>12.26056056056065</v>
+        <v>12.73513513513527</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.56656656656665</v>
+        <v>12.12196196196209</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.95455455455465</v>
+        <v>13.34830830830845</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.11000000000017</v>
+        <v>23.56000000000024</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.185718190299667e-13</v>
       </c>
       <c r="I7" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.185718190299667e-13</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>51.08717450732755</v>
+        <v>40.8246904110972</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[43.89608973923394, 58.27825927542115]</t>
+          <t>[33.04138024598285, 48.60800057621155]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>3.138447916198813</v>
+        <v>3.138447916198812</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.974921571867812, 3.3019742605298132]</t>
+          <t>[2.9246057736121194, 3.352290058785505]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>57.34746283348922</v>
+        <v>51.62341190587627</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[52.3665685633469, 62.32835710363155]</t>
+          <t>[46.35582091908475, 56.8910028926678]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>11.56656656656665</v>
+        <v>11.79179179179192</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.96510510510519</v>
+        <v>10.98994994995006</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.16802802802812</v>
+        <v>12.59363363363377</v>
       </c>
     </row>
   </sheetData>
